--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN Q1'20-Q2'20 Plan Rev - 12-16.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN Q1'20-Q2'20 Plan Rev - 12-16.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -198,7 +198,7 @@
     <t>Posting</t>
   </si>
   <si>
-    <t>1Q '20 MDN :45s eq.</t>
+    <t>1Q '20 EF :45s eq.</t>
   </si>
   <si>
     <t>January</t>
@@ -225,31 +225,10 @@
     <t>3/15</t>
   </si>
   <si>
-    <t>3/16-17, 3/19-20</t>
-  </si>
-  <si>
-    <t>3/24, 3/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Q '20 MDN :30s </t>
-  </si>
-  <si>
-    <t>3/16-17, 3/21</t>
-  </si>
-  <si>
-    <t>3/26-29</t>
-  </si>
-  <si>
-    <t>1Q '20 MDN Total</t>
-  </si>
-  <si>
     <t>3/16-17, 3/19-21</t>
   </si>
   <si>
     <t>3/24, 3/26-29</t>
-  </si>
-  <si>
-    <t>1Q '20 EF :45s eq.</t>
   </si>
   <si>
     <t xml:space="preserve">1Q '20 EF :30s </t>
@@ -267,7 +246,22 @@
     <t>1Q '20 EM Total</t>
   </si>
   <si>
-    <t>2Q '20 MDN :45s eq.</t>
+    <t>1Q '20 MDN :45s eq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Q '20 MDN :30s </t>
+  </si>
+  <si>
+    <t>1Q '20 MDN Total</t>
+  </si>
+  <si>
+    <t>1Q '20 ADU</t>
+  </si>
+  <si>
+    <t>ADU</t>
+  </si>
+  <si>
+    <t>2Q '20 EF :45s eq.</t>
   </si>
   <si>
     <t>April</t>
@@ -279,22 +273,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>4/7, 4/9-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2Q '20 MDN :30s </t>
-  </si>
-  <si>
-    <t>4/8-10</t>
-  </si>
-  <si>
-    <t>2Q '20 MDN Total</t>
-  </si>
-  <si>
     <t>4/7-11</t>
-  </si>
-  <si>
-    <t>2Q '20 EF :45s eq.</t>
   </si>
   <si>
     <t xml:space="preserve">2Q '20 EF :30s </t>
@@ -310,6 +289,18 @@
   </si>
   <si>
     <t>2Q '20 EM Total</t>
+  </si>
+  <si>
+    <t>2Q '20 MDN :45s eq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Q '20 MDN :30s </t>
+  </si>
+  <si>
+    <t>2Q '20 MDN Total</t>
+  </si>
+  <si>
+    <t>2Q '20 ADU</t>
   </si>
   <si>
     <t>:15 equiv., :30</t>
@@ -342,7 +333,7 @@
     <t>Odd</t>
   </si>
   <si>
-    <t>MDN</t>
+    <t>EF</t>
   </si>
   <si>
     <t>3/9/2020</t>
@@ -354,10 +345,10 @@
     <t>Even</t>
   </si>
   <si>
-    <t>EF</t>
+    <t>EM</t>
   </si>
   <si>
-    <t>EM</t>
+    <t>MDN</t>
   </si>
   <si>
     <t>3/16/2020</t>
@@ -396,7 +387,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/11/20</t>
+    <t>Created 02/14/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2483,7 +2474,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/11/20</v>
+        <v>Created 02/14/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2572,7 +2563,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2590,19 +2581,19 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" s="87" t="s">
         <v>60</v>
@@ -2611,10 +2602,10 @@
         <v>25</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K8" s="88" t="s">
         <v>30</v>
@@ -2630,32 +2621,32 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G9" s="85">
         <v>0</v>
       </c>
       <c r="H9" s="85">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I9" s="83">
         <v>0</v>
       </c>
       <c r="J9" s="93">
-        <v>800.00000000000011</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K9" s="95">
         <v>25</v>
@@ -2663,20 +2654,20 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E10" s="83">
         <v>0</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G10" s="85">
         <v>0</v>
@@ -2696,32 +2687,32 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G11" s="85">
         <v>0</v>
       </c>
       <c r="H11" s="85">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I11" s="83">
         <v>0</v>
       </c>
       <c r="J11" s="93">
-        <v>1600.0000000000002</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K11" s="95">
         <v>25</v>
@@ -2729,32 +2720,32 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12" s="83">
         <v>0</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G12" s="85">
         <v>0</v>
       </c>
       <c r="H12" s="85">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I12" s="83">
         <v>0</v>
       </c>
       <c r="J12" s="93">
-        <v>800.00000000000011</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K12" s="95">
         <v>25</v>
@@ -2762,20 +2753,20 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13" s="83">
         <v>0</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G13" s="85">
         <v>0</v>
@@ -2795,32 +2786,32 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G14" s="85">
         <v>0</v>
       </c>
       <c r="H14" s="85">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I14" s="83">
         <v>0</v>
       </c>
       <c r="J14" s="93">
-        <v>1600.0000000000002</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K14" s="95">
         <v>25</v>
@@ -2828,32 +2819,32 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" s="83">
         <v>0</v>
       </c>
       <c r="F15" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G15" s="85">
         <v>0</v>
       </c>
       <c r="H15" s="85">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I15" s="83">
         <v>0</v>
       </c>
       <c r="J15" s="93">
-        <v>800.00000000000011</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K15" s="95">
         <v>25</v>
@@ -2861,20 +2852,20 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="82" t="s">
-        <v>109</v>
-      </c>
       <c r="E16" s="83">
         <v>0</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" s="85">
         <v>0</v>
@@ -2894,32 +2885,32 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G17" s="85">
         <v>0</v>
       </c>
       <c r="H17" s="85">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I17" s="83">
         <v>0</v>
       </c>
       <c r="J17" s="93">
-        <v>1600.0000000000002</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K17" s="95">
         <v>25</v>
@@ -2927,20 +2918,20 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E18" s="83">
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G18" s="85">
         <v>0</v>
@@ -2960,20 +2951,20 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="81" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G19" s="85">
         <v>0</v>
@@ -2993,20 +2984,20 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="83">
+        <v>0</v>
+      </c>
+      <c r="F20" s="84" t="s">
         <v>107</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="83">
-        <v>0</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>110</v>
       </c>
       <c r="G20" s="85">
         <v>0</v>
@@ -3026,20 +3017,20 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E21" s="83">
         <v>0</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -3059,20 +3050,20 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="81" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E22" s="83">
         <v>0</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -3092,20 +3083,20 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="83">
+        <v>0</v>
+      </c>
+      <c r="F23" s="84" t="s">
         <v>107</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="83">
-        <v>0</v>
-      </c>
-      <c r="F23" s="84" t="s">
-        <v>110</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -3125,20 +3116,20 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E24" s="83">
         <v>0</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -3158,20 +3149,20 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="82" t="s">
-        <v>109</v>
-      </c>
       <c r="E25" s="83">
         <v>0</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -3191,20 +3182,20 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="83">
+        <v>0</v>
+      </c>
+      <c r="F26" s="84" t="s">
         <v>107</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="83">
-        <v>0</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>110</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -3224,12 +3215,12 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="39"/>
       <c r="D27" s="91" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E27" s="97">
         <v>0</v>
@@ -3255,7 +3246,7 @@
     </row>
     <row r="29">
       <c r="C29" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -3273,19 +3264,19 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G30" s="87" t="s">
         <v>60</v>
@@ -3294,10 +3285,10 @@
         <v>25</v>
       </c>
       <c r="I30" s="87" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J30" s="92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K30" s="88" t="s">
         <v>30</v>
@@ -3313,32 +3304,32 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" s="83">
         <v>0</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G31" s="85">
         <v>0</v>
       </c>
       <c r="H31" s="85">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I31" s="83">
         <v>0</v>
       </c>
       <c r="J31" s="93">
-        <v>800.00000000000011</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K31" s="95">
         <v>25</v>
@@ -3346,20 +3337,20 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" s="83">
         <v>0</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G32" s="85">
         <v>0</v>
@@ -3379,32 +3370,32 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E33" s="83">
         <v>0</v>
       </c>
       <c r="F33" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G33" s="85">
         <v>0</v>
       </c>
       <c r="H33" s="85">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I33" s="83">
         <v>0</v>
       </c>
       <c r="J33" s="93">
-        <v>1600.0000000000002</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K33" s="95">
         <v>25</v>
@@ -3412,32 +3403,32 @@
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E34" s="83">
         <v>0</v>
       </c>
       <c r="F34" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G34" s="85">
         <v>0</v>
       </c>
       <c r="H34" s="85">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I34" s="83">
         <v>0</v>
       </c>
       <c r="J34" s="93">
-        <v>800.00000000000011</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="K34" s="95">
         <v>25</v>
@@ -3445,20 +3436,20 @@
     </row>
     <row r="35" ht="24" customHeight="1">
       <c r="A35" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E35" s="83">
         <v>0</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G35" s="85">
         <v>0</v>
@@ -3478,32 +3469,32 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E36" s="83">
         <v>0</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G36" s="85">
         <v>0</v>
       </c>
       <c r="H36" s="85">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I36" s="83">
         <v>0</v>
       </c>
       <c r="J36" s="93">
-        <v>1600.0000000000002</v>
+        <v>800.00000000000011</v>
       </c>
       <c r="K36" s="95">
         <v>25</v>
@@ -3511,20 +3502,20 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" s="83">
         <v>0</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G37" s="85">
         <v>0</v>
@@ -3544,20 +3535,20 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="81" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E38" s="83">
         <v>0</v>
       </c>
       <c r="F38" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -3577,20 +3568,20 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="83">
+        <v>0</v>
+      </c>
+      <c r="F39" s="84" t="s">
         <v>107</v>
-      </c>
-      <c r="D39" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="83">
-        <v>0</v>
-      </c>
-      <c r="F39" s="84" t="s">
-        <v>110</v>
       </c>
       <c r="G39" s="85">
         <v>0</v>
@@ -3610,20 +3601,20 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E40" s="83">
         <v>0</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
@@ -3643,20 +3634,20 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E41" s="83">
         <v>0</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -3676,20 +3667,20 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="83">
+        <v>0</v>
+      </c>
+      <c r="F42" s="84" t="s">
         <v>107</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="83">
-        <v>0</v>
-      </c>
-      <c r="F42" s="84" t="s">
-        <v>110</v>
       </c>
       <c r="G42" s="85">
         <v>0</v>
@@ -3709,12 +3700,12 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="39"/>
       <c r="D43" s="91" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E43" s="97">
         <v>0</v>
@@ -3740,7 +3731,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="C45" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I45" s="60"/>
     </row>
@@ -3753,7 +3744,7 @@
       </c>
       <c r="E46" s="101"/>
       <c r="F46" s="101" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G46" s="101"/>
       <c r="H46" s="101" t="s">
@@ -3789,13 +3780,13 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="C49" s="113" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D49" s="109"/>
       <c r="E49" s="109"/>
       <c r="F49" s="112"/>
       <c r="G49" s="114" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H49" s="109"/>
       <c r="I49" s="115"/>
@@ -4050,7 +4041,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P169"/>
+  <dimension ref="A2:P187"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -4082,7 +4073,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/11/20</v>
+        <v>Created 02/14/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4234,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="64">
-        <v>0.040000000000000008</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="N9" s="64">
-        <v>0.040000000000000008</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="O9" s="65">
-        <v>0.040000000000000008</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="P9" s="69" t="s">
         <v>38</v>
@@ -4330,16 +4321,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="36">
-        <v>800.00000000000011</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="N11" s="36">
-        <v>800.00000000000011</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="O11" s="58">
-        <v>800.00000000000011</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="P11" s="58">
-        <v>2400</v>
+        <v>4848.0000000000009</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -4425,16 +4416,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="71">
-        <v>20000</v>
+        <v>40400</v>
       </c>
       <c r="N13" s="71">
-        <v>20000</v>
+        <v>40400</v>
       </c>
       <c r="O13" s="72">
-        <v>20000</v>
+        <v>40400</v>
       </c>
       <c r="P13" s="72">
-        <v>60000</v>
+        <v>121200</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" s="129" customFormat="1">
@@ -4461,7 +4452,7 @@
         <v>64</v>
       </c>
       <c r="P14" s="131">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -4572,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="M18" s="64">
-        <v>0.0004</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="N18" s="64">
-        <v>0.0004</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="O18" s="65">
-        <v>0.0004</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="P18" s="69" t="s">
         <v>38</v>
@@ -4668,16 +4659,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="36">
-        <v>8</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="N20" s="36">
-        <v>8</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="O20" s="58">
-        <v>8</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="P20" s="58">
-        <v>24</v>
+        <v>4848.0000000000009</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -4763,16 +4754,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="71">
-        <v>200</v>
+        <v>40400</v>
       </c>
       <c r="N22" s="71">
-        <v>200</v>
+        <v>40400</v>
       </c>
       <c r="O22" s="72">
-        <v>200</v>
+        <v>40400</v>
       </c>
       <c r="P22" s="72">
-        <v>600</v>
+        <v>121200</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
@@ -4789,21 +4780,23 @@
       <c r="J23" s="134"/>
       <c r="K23" s="132"/>
       <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
+      <c r="M23" s="133" t="s">
+        <v>62</v>
+      </c>
       <c r="N23" s="133" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O23" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P23" s="131">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="60"/>
       <c r="B25" s="53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="138" t="s">
         <v>55</v>
@@ -4908,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="64">
-        <v>0.0202</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="N27" s="64">
-        <v>0.0202</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="O27" s="65">
-        <v>0.0202</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="P27" s="69" t="s">
         <v>38</v>
@@ -5004,16 +4997,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="36">
-        <v>808</v>
+        <v>3232.0000000000005</v>
       </c>
       <c r="N29" s="36">
-        <v>808</v>
+        <v>3232.0000000000005</v>
       </c>
       <c r="O29" s="58">
-        <v>808</v>
+        <v>3232.0000000000005</v>
       </c>
       <c r="P29" s="58">
-        <v>2424</v>
+        <v>9696.0000000000018</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -5099,16 +5092,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="71">
-        <v>20200</v>
+        <v>80800</v>
       </c>
       <c r="N31" s="71">
-        <v>20200</v>
+        <v>80800</v>
       </c>
       <c r="O31" s="72">
-        <v>20200</v>
+        <v>80800</v>
       </c>
       <c r="P31" s="72">
-        <v>60600</v>
+        <v>242400</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1">
@@ -5129,10 +5122,10 @@
         <v>62</v>
       </c>
       <c r="N32" s="133" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O32" s="134" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P32" s="131">
         <v>11</v>
@@ -5141,7 +5134,7 @@
     <row r="34">
       <c r="A34" s="60"/>
       <c r="B34" s="53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C34" s="138" t="s">
         <v>55</v>
@@ -5246,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="M36" s="64">
-        <v>0.080000000000000016</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="N36" s="64">
-        <v>0.080000000000000016</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="O36" s="65">
-        <v>0.080000000000000016</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="P36" s="69" t="s">
         <v>38</v>
@@ -5342,16 +5335,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="36">
-        <v>1600.0000000000002</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="N38" s="36">
-        <v>1600.0000000000002</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="O38" s="58">
-        <v>1600.0000000000002</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="P38" s="58">
-        <v>4800</v>
+        <v>16728.000000000004</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
@@ -5437,16 +5430,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="71">
-        <v>40000</v>
+        <v>139400</v>
       </c>
       <c r="N40" s="71">
-        <v>40000</v>
+        <v>139400</v>
       </c>
       <c r="O40" s="72">
-        <v>40000</v>
+        <v>139400</v>
       </c>
       <c r="P40" s="72">
-        <v>120000</v>
+        <v>418200</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
@@ -5473,13 +5466,13 @@
         <v>64</v>
       </c>
       <c r="P41" s="131">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="60"/>
       <c r="B43" s="53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C43" s="138" t="s">
         <v>55</v>
@@ -5584,13 +5577,13 @@
         <v>0</v>
       </c>
       <c r="M45" s="64">
-        <v>0.0008</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="N45" s="64">
-        <v>0.0008</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="O45" s="65">
-        <v>0.0008</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="P45" s="69" t="s">
         <v>38</v>
@@ -5680,16 +5673,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="36">
-        <v>16</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="N47" s="36">
-        <v>16</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="O47" s="58">
-        <v>16</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="P47" s="58">
-        <v>48</v>
+        <v>16728.000000000004</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -5775,16 +5768,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="71">
-        <v>400</v>
+        <v>139400</v>
       </c>
       <c r="N49" s="71">
-        <v>400</v>
+        <v>139400</v>
       </c>
       <c r="O49" s="72">
-        <v>400</v>
+        <v>139400</v>
       </c>
       <c r="P49" s="72">
-        <v>1200</v>
+        <v>418200</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1">
@@ -5801,21 +5794,23 @@
       <c r="J50" s="134"/>
       <c r="K50" s="132"/>
       <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
+      <c r="M50" s="133" t="s">
+        <v>62</v>
+      </c>
       <c r="N50" s="133" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O50" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P50" s="131">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="60"/>
       <c r="B52" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C52" s="138" t="s">
         <v>55</v>
@@ -5920,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="M54" s="64">
-        <v>0.0404</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="N54" s="64">
-        <v>0.0404</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="O54" s="65">
-        <v>0.0404</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="P54" s="69" t="s">
         <v>38</v>
@@ -6016,16 +6011,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="36">
-        <v>1616</v>
+        <v>11152.000000000002</v>
       </c>
       <c r="N56" s="36">
-        <v>1616</v>
+        <v>11152.000000000002</v>
       </c>
       <c r="O56" s="58">
-        <v>1616</v>
+        <v>11152.000000000002</v>
       </c>
       <c r="P56" s="58">
-        <v>4848</v>
+        <v>33456.000000000007</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
@@ -6111,16 +6106,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="71">
-        <v>40400</v>
+        <v>278800</v>
       </c>
       <c r="N58" s="71">
-        <v>40400</v>
+        <v>278800</v>
       </c>
       <c r="O58" s="72">
-        <v>40400</v>
+        <v>278800</v>
       </c>
       <c r="P58" s="72">
-        <v>121200</v>
+        <v>836400</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1">
@@ -6141,10 +6136,10 @@
         <v>62</v>
       </c>
       <c r="N59" s="133" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O59" s="134" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P59" s="131">
         <v>11</v>
@@ -6153,7 +6148,7 @@
     <row r="61">
       <c r="A61" s="60"/>
       <c r="B61" s="53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" s="138" t="s">
         <v>55</v>
@@ -6258,13 +6253,13 @@
         <v>0</v>
       </c>
       <c r="M63" s="64">
-        <v>0.080000000000000016</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="N63" s="64">
-        <v>0.080000000000000016</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="O63" s="65">
-        <v>0.080000000000000016</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="P63" s="69" t="s">
         <v>38</v>
@@ -6354,16 +6349,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="36">
-        <v>1600.0000000000002</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="N65" s="36">
-        <v>1600.0000000000002</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="O65" s="58">
-        <v>1600.0000000000002</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="P65" s="58">
-        <v>4800</v>
+        <v>2424.0000000000005</v>
       </c>
     </row>
     <row r="66" ht="24" customHeight="1">
@@ -6449,16 +6444,16 @@
         <v>0</v>
       </c>
       <c r="M67" s="71">
-        <v>40000</v>
+        <v>20200</v>
       </c>
       <c r="N67" s="71">
-        <v>40000</v>
+        <v>20200</v>
       </c>
       <c r="O67" s="72">
-        <v>40000</v>
+        <v>20200</v>
       </c>
       <c r="P67" s="72">
-        <v>120000</v>
+        <v>60600</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
@@ -6485,13 +6480,13 @@
         <v>64</v>
       </c>
       <c r="P68" s="131">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="60"/>
       <c r="B70" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C70" s="138" t="s">
         <v>55</v>
@@ -6596,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="M72" s="64">
-        <v>0.19880000000000003</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="N72" s="64">
-        <v>0.19880000000000003</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="O72" s="65">
-        <v>0.19880000000000003</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="P72" s="69" t="s">
         <v>38</v>
@@ -6692,16 +6687,16 @@
         <v>0</v>
       </c>
       <c r="M74" s="36">
-        <v>3976.0000000000005</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="N74" s="36">
-        <v>3976.0000000000005</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="O74" s="58">
-        <v>3976.0000000000005</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="P74" s="58">
-        <v>11928</v>
+        <v>2424.0000000000005</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
@@ -6787,16 +6782,16 @@
         <v>0</v>
       </c>
       <c r="M76" s="71">
-        <v>99400</v>
+        <v>20200</v>
       </c>
       <c r="N76" s="71">
-        <v>99400</v>
+        <v>20200</v>
       </c>
       <c r="O76" s="72">
-        <v>99400</v>
+        <v>20200</v>
       </c>
       <c r="P76" s="72">
-        <v>298200</v>
+        <v>60600</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
@@ -6813,21 +6808,23 @@
       <c r="J77" s="134"/>
       <c r="K77" s="132"/>
       <c r="L77" s="133"/>
-      <c r="M77" s="133"/>
+      <c r="M77" s="133" t="s">
+        <v>62</v>
+      </c>
       <c r="N77" s="133" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O77" s="134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P77" s="131">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="60"/>
       <c r="B79" s="53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C79" s="138" t="s">
         <v>55</v>
@@ -6932,13 +6929,13 @@
         <v>0</v>
       </c>
       <c r="M81" s="64">
-        <v>0.1394</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="N81" s="64">
-        <v>0.1394</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="O81" s="65">
-        <v>0.1394</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="P81" s="69" t="s">
         <v>38</v>
@@ -7028,16 +7025,16 @@
         <v>0</v>
       </c>
       <c r="M83" s="36">
-        <v>5576</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="N83" s="36">
-        <v>5576</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="O83" s="58">
-        <v>5576</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="P83" s="58">
-        <v>16728</v>
+        <v>4848.0000000000009</v>
       </c>
     </row>
     <row r="84" ht="24" customHeight="1">
@@ -7123,16 +7120,16 @@
         <v>0</v>
       </c>
       <c r="M85" s="71">
-        <v>139400</v>
+        <v>40400</v>
       </c>
       <c r="N85" s="71">
-        <v>139400</v>
+        <v>40400</v>
       </c>
       <c r="O85" s="72">
-        <v>139400</v>
+        <v>40400</v>
       </c>
       <c r="P85" s="72">
-        <v>418200</v>
+        <v>121200</v>
       </c>
     </row>
     <row r="86" ht="30" customHeight="1">
@@ -7153,10 +7150,10 @@
         <v>62</v>
       </c>
       <c r="N86" s="133" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O86" s="134" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P86" s="131">
         <v>11</v>
@@ -7165,22 +7162,22 @@
     <row r="88">
       <c r="A88" s="60"/>
       <c r="B88" s="53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="138" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D88" s="139"/>
       <c r="E88" s="139"/>
       <c r="F88" s="140"/>
       <c r="G88" s="139" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H88" s="139"/>
       <c r="I88" s="139"/>
       <c r="J88" s="140"/>
       <c r="K88" s="138" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="L88" s="139"/>
       <c r="M88" s="139"/>
@@ -7192,43 +7189,43 @@
       <c r="A89" s="60"/>
       <c r="B89" s="75"/>
       <c r="C89" s="56">
-        <v>43920</v>
+        <v>43829</v>
       </c>
       <c r="D89" s="56">
-        <v>43927</v>
+        <v>43836</v>
       </c>
       <c r="E89" s="56">
-        <v>43934</v>
+        <v>43843</v>
       </c>
       <c r="F89" s="57">
-        <v>43941</v>
+        <v>43850</v>
       </c>
       <c r="G89" s="56">
-        <v>43948</v>
+        <v>43857</v>
       </c>
       <c r="H89" s="56">
-        <v>43955</v>
+        <v>43864</v>
       </c>
       <c r="I89" s="56">
-        <v>43962</v>
+        <v>43871</v>
       </c>
       <c r="J89" s="57">
-        <v>43969</v>
+        <v>43878</v>
       </c>
       <c r="K89" s="56">
-        <v>43976</v>
+        <v>43885</v>
       </c>
       <c r="L89" s="56">
-        <v>43983</v>
+        <v>43892</v>
       </c>
       <c r="M89" s="56">
-        <v>43990</v>
+        <v>43899</v>
       </c>
       <c r="N89" s="56">
-        <v>43997</v>
+        <v>43906</v>
       </c>
       <c r="O89" s="56">
-        <v>44004</v>
+        <v>43913</v>
       </c>
       <c r="P89" s="68" t="s">
         <v>37</v>
@@ -7239,45 +7236,19 @@
       <c r="B90" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C90" s="63">
-        <v>0.040000000000000008</v>
-      </c>
-      <c r="D90" s="64">
-        <v>0.040000000000000008</v>
-      </c>
-      <c r="E90" s="64">
-        <v>0</v>
-      </c>
-      <c r="F90" s="65">
-        <v>0</v>
-      </c>
-      <c r="G90" s="63">
-        <v>0</v>
-      </c>
-      <c r="H90" s="64">
-        <v>0</v>
-      </c>
-      <c r="I90" s="64">
-        <v>0</v>
-      </c>
-      <c r="J90" s="65">
-        <v>0</v>
-      </c>
-      <c r="K90" s="63">
-        <v>0</v>
-      </c>
-      <c r="L90" s="64">
-        <v>0</v>
-      </c>
-      <c r="M90" s="64">
-        <v>0</v>
-      </c>
-      <c r="N90" s="64">
-        <v>0</v>
-      </c>
-      <c r="O90" s="65">
-        <v>0</v>
-      </c>
+      <c r="C90" s="63"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="64"/>
+      <c r="M90" s="64"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="65"/>
       <c r="P90" s="69" t="s">
         <v>38</v>
       </c>
@@ -7287,47 +7258,27 @@
       <c r="B91" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="67">
-        <v>0</v>
-      </c>
-      <c r="D91" s="37">
-        <v>0</v>
-      </c>
-      <c r="E91" s="37">
-        <v>0</v>
-      </c>
-      <c r="F91" s="59">
-        <v>0</v>
-      </c>
-      <c r="G91" s="67">
-        <v>0</v>
-      </c>
-      <c r="H91" s="37">
-        <v>0</v>
-      </c>
-      <c r="I91" s="37">
-        <v>0</v>
-      </c>
-      <c r="J91" s="59">
-        <v>0</v>
-      </c>
-      <c r="K91" s="67">
-        <v>0</v>
-      </c>
-      <c r="L91" s="37">
-        <v>0</v>
-      </c>
+      <c r="C91" s="67"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="37"/>
       <c r="M91" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" s="59">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" ht="24" customHeight="1">
@@ -7335,47 +7286,27 @@
       <c r="B92" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="66">
-        <v>800.00000000000011</v>
-      </c>
-      <c r="D92" s="36">
-        <v>800.00000000000011</v>
-      </c>
-      <c r="E92" s="36">
-        <v>0</v>
-      </c>
-      <c r="F92" s="58">
-        <v>0</v>
-      </c>
-      <c r="G92" s="66">
-        <v>0</v>
-      </c>
-      <c r="H92" s="36">
-        <v>0</v>
-      </c>
-      <c r="I92" s="36">
-        <v>0</v>
-      </c>
-      <c r="J92" s="58">
-        <v>0</v>
-      </c>
-      <c r="K92" s="66">
-        <v>0</v>
-      </c>
-      <c r="L92" s="36">
-        <v>0</v>
-      </c>
-      <c r="M92" s="36">
-        <v>0</v>
-      </c>
-      <c r="N92" s="36">
-        <v>0</v>
-      </c>
-      <c r="O92" s="58">
-        <v>0</v>
-      </c>
-      <c r="P92" s="58">
-        <v>1600</v>
+      <c r="C92" s="66"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N92" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O92" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="P92" s="58" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
@@ -7383,94 +7314,54 @@
       <c r="B93" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="73">
-        <v>25</v>
-      </c>
-      <c r="D93" s="38">
-        <v>25</v>
-      </c>
-      <c r="E93" s="38">
-        <v>0</v>
-      </c>
-      <c r="F93" s="74">
-        <v>0</v>
-      </c>
-      <c r="G93" s="73">
-        <v>0</v>
-      </c>
-      <c r="H93" s="38">
-        <v>0</v>
-      </c>
-      <c r="I93" s="38">
-        <v>0</v>
-      </c>
-      <c r="J93" s="74">
-        <v>0</v>
-      </c>
-      <c r="K93" s="73">
-        <v>0</v>
-      </c>
-      <c r="L93" s="38">
-        <v>0</v>
-      </c>
-      <c r="M93" s="38">
-        <v>0</v>
-      </c>
-      <c r="N93" s="38">
-        <v>0</v>
-      </c>
-      <c r="O93" s="74">
-        <v>0</v>
-      </c>
-      <c r="P93" s="74">
-        <v>25</v>
+      <c r="C93" s="73"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="73"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="N93" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="O93" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="P93" s="74" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="70">
-        <v>20000</v>
-      </c>
-      <c r="D94" s="71">
-        <v>20000</v>
-      </c>
-      <c r="E94" s="71">
-        <v>0</v>
-      </c>
-      <c r="F94" s="72">
-        <v>0</v>
-      </c>
-      <c r="G94" s="70">
-        <v>0</v>
-      </c>
-      <c r="H94" s="71">
-        <v>0</v>
-      </c>
-      <c r="I94" s="71">
-        <v>0</v>
-      </c>
-      <c r="J94" s="72">
-        <v>0</v>
-      </c>
-      <c r="K94" s="70">
-        <v>0</v>
-      </c>
-      <c r="L94" s="71">
-        <v>0</v>
-      </c>
-      <c r="M94" s="71">
-        <v>0</v>
-      </c>
-      <c r="N94" s="71">
-        <v>0</v>
-      </c>
-      <c r="O94" s="72">
-        <v>0</v>
-      </c>
-      <c r="P94" s="72">
-        <v>40000</v>
+      <c r="C94" s="70"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="70"/>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="N94" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="O94" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P94" s="72" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1">
@@ -7478,9 +7369,7 @@
         <v>61</v>
       </c>
       <c r="C95" s="132"/>
-      <c r="D95" s="133" t="s">
-        <v>81</v>
-      </c>
+      <c r="D95" s="133"/>
       <c r="E95" s="133"/>
       <c r="F95" s="133"/>
       <c r="G95" s="132"/>
@@ -7492,29 +7381,27 @@
       <c r="M95" s="133"/>
       <c r="N95" s="133"/>
       <c r="O95" s="134"/>
-      <c r="P95" s="131">
-        <v>4</v>
-      </c>
+      <c r="P95" s="131"/>
     </row>
     <row r="97">
       <c r="A97" s="60"/>
       <c r="B97" s="53" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C97" s="138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D97" s="139"/>
       <c r="E97" s="139"/>
       <c r="F97" s="140"/>
       <c r="G97" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H97" s="139"/>
       <c r="I97" s="139"/>
       <c r="J97" s="140"/>
       <c r="K97" s="138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L97" s="139"/>
       <c r="M97" s="139"/>
@@ -7574,10 +7461,10 @@
         <v>58</v>
       </c>
       <c r="C99" s="63">
-        <v>0.0004</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="D99" s="64">
-        <v>0.0004</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="E99" s="64">
         <v>0</v>
@@ -7670,10 +7557,10 @@
         <v>59</v>
       </c>
       <c r="C101" s="66">
-        <v>8</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="D101" s="36">
-        <v>8</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="E101" s="36">
         <v>0</v>
@@ -7709,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="58">
-        <v>16</v>
+        <v>3232.0000000000005</v>
       </c>
     </row>
     <row r="102" ht="24" customHeight="1">
@@ -7765,10 +7652,10 @@
         <v>60</v>
       </c>
       <c r="C103" s="70">
-        <v>200</v>
+        <v>40400</v>
       </c>
       <c r="D103" s="71">
-        <v>200</v>
+        <v>40400</v>
       </c>
       <c r="E103" s="71">
         <v>0</v>
@@ -7804,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="72">
-        <v>400</v>
+        <v>80800</v>
       </c>
     </row>
     <row r="104" ht="30" customHeight="1">
@@ -7813,7 +7700,7 @@
       </c>
       <c r="C104" s="132"/>
       <c r="D104" s="133" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E104" s="133"/>
       <c r="F104" s="133"/>
@@ -7827,28 +7714,28 @@
       <c r="N104" s="133"/>
       <c r="O104" s="134"/>
       <c r="P104" s="131">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="60"/>
       <c r="B106" s="53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C106" s="138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D106" s="139"/>
       <c r="E106" s="139"/>
       <c r="F106" s="140"/>
       <c r="G106" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H106" s="139"/>
       <c r="I106" s="139"/>
       <c r="J106" s="140"/>
       <c r="K106" s="138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L106" s="139"/>
       <c r="M106" s="139"/>
@@ -7908,10 +7795,10 @@
         <v>58</v>
       </c>
       <c r="C108" s="63">
-        <v>0.0202</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="D108" s="64">
-        <v>0.0202</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="E108" s="64">
         <v>0</v>
@@ -8004,10 +7891,10 @@
         <v>59</v>
       </c>
       <c r="C110" s="66">
-        <v>808</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="D110" s="36">
-        <v>808</v>
+        <v>1616.0000000000002</v>
       </c>
       <c r="E110" s="36">
         <v>0</v>
@@ -8043,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="58">
-        <v>1616</v>
+        <v>3232.0000000000005</v>
       </c>
     </row>
     <row r="111" ht="24" customHeight="1">
@@ -8099,10 +7986,10 @@
         <v>60</v>
       </c>
       <c r="C112" s="70">
-        <v>20200</v>
+        <v>40400</v>
       </c>
       <c r="D112" s="71">
-        <v>20200</v>
+        <v>40400</v>
       </c>
       <c r="E112" s="71">
         <v>0</v>
@@ -8138,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="P112" s="72">
-        <v>40400</v>
+        <v>80800</v>
       </c>
     </row>
     <row r="113" ht="30" customHeight="1">
@@ -8147,7 +8034,7 @@
       </c>
       <c r="C113" s="132"/>
       <c r="D113" s="133" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E113" s="133"/>
       <c r="F113" s="133"/>
@@ -8161,28 +8048,28 @@
       <c r="N113" s="133"/>
       <c r="O113" s="134"/>
       <c r="P113" s="131">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="60"/>
       <c r="B115" s="53" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C115" s="138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D115" s="139"/>
       <c r="E115" s="139"/>
       <c r="F115" s="140"/>
       <c r="G115" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H115" s="139"/>
       <c r="I115" s="139"/>
       <c r="J115" s="140"/>
       <c r="K115" s="138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L115" s="139"/>
       <c r="M115" s="139"/>
@@ -8242,10 +8129,10 @@
         <v>58</v>
       </c>
       <c r="C117" s="63">
-        <v>0.080000000000000016</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="D117" s="64">
-        <v>0.080000000000000016</v>
+        <v>0.040400000000000005</v>
       </c>
       <c r="E117" s="64">
         <v>0</v>
@@ -8338,10 +8225,10 @@
         <v>59</v>
       </c>
       <c r="C119" s="66">
-        <v>1600.0000000000002</v>
+        <v>3232.0000000000005</v>
       </c>
       <c r="D119" s="36">
-        <v>1600.0000000000002</v>
+        <v>3232.0000000000005</v>
       </c>
       <c r="E119" s="36">
         <v>0</v>
@@ -8377,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="58">
-        <v>3200</v>
+        <v>6464.0000000000009</v>
       </c>
     </row>
     <row r="120" ht="24" customHeight="1">
@@ -8433,10 +8320,10 @@
         <v>60</v>
       </c>
       <c r="C121" s="70">
-        <v>40000</v>
+        <v>80800</v>
       </c>
       <c r="D121" s="71">
-        <v>40000</v>
+        <v>80800</v>
       </c>
       <c r="E121" s="71">
         <v>0</v>
@@ -8472,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="72">
-        <v>80000</v>
+        <v>161600</v>
       </c>
     </row>
     <row r="122" ht="30" customHeight="1">
@@ -8481,7 +8368,7 @@
       </c>
       <c r="C122" s="132"/>
       <c r="D122" s="133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E122" s="133"/>
       <c r="F122" s="133"/>
@@ -8495,28 +8382,28 @@
       <c r="N122" s="133"/>
       <c r="O122" s="134"/>
       <c r="P122" s="131">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="60"/>
       <c r="B124" s="53" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C124" s="138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D124" s="139"/>
       <c r="E124" s="139"/>
       <c r="F124" s="140"/>
       <c r="G124" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H124" s="139"/>
       <c r="I124" s="139"/>
       <c r="J124" s="140"/>
       <c r="K124" s="138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L124" s="139"/>
       <c r="M124" s="139"/>
@@ -8576,10 +8463,10 @@
         <v>58</v>
       </c>
       <c r="C126" s="63">
-        <v>0.0008</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="D126" s="64">
-        <v>0.0008</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="E126" s="64">
         <v>0</v>
@@ -8672,10 +8559,10 @@
         <v>59</v>
       </c>
       <c r="C128" s="66">
-        <v>16</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="D128" s="36">
-        <v>16</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="E128" s="36">
         <v>0</v>
@@ -8711,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="P128" s="58">
-        <v>32</v>
+        <v>11152.000000000002</v>
       </c>
     </row>
     <row r="129" ht="24" customHeight="1">
@@ -8767,10 +8654,10 @@
         <v>60</v>
       </c>
       <c r="C130" s="70">
-        <v>400</v>
+        <v>139400</v>
       </c>
       <c r="D130" s="71">
-        <v>400</v>
+        <v>139400</v>
       </c>
       <c r="E130" s="71">
         <v>0</v>
@@ -8806,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="72">
-        <v>800</v>
+        <v>278800</v>
       </c>
     </row>
     <row r="131" ht="30" customHeight="1">
@@ -8815,7 +8702,7 @@
       </c>
       <c r="C131" s="132"/>
       <c r="D131" s="133" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E131" s="133"/>
       <c r="F131" s="133"/>
@@ -8829,28 +8716,28 @@
       <c r="N131" s="133"/>
       <c r="O131" s="134"/>
       <c r="P131" s="131">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="60"/>
       <c r="B133" s="53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C133" s="138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D133" s="139"/>
       <c r="E133" s="139"/>
       <c r="F133" s="140"/>
       <c r="G133" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H133" s="139"/>
       <c r="I133" s="139"/>
       <c r="J133" s="140"/>
       <c r="K133" s="138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L133" s="139"/>
       <c r="M133" s="139"/>
@@ -8910,10 +8797,10 @@
         <v>58</v>
       </c>
       <c r="C135" s="63">
-        <v>0.0404</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="D135" s="64">
-        <v>0.0404</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="E135" s="64">
         <v>0</v>
@@ -9006,10 +8893,10 @@
         <v>59</v>
       </c>
       <c r="C137" s="66">
-        <v>1616</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="D137" s="36">
-        <v>1616</v>
+        <v>5576.0000000000009</v>
       </c>
       <c r="E137" s="36">
         <v>0</v>
@@ -9045,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="58">
-        <v>3232</v>
+        <v>11152.000000000002</v>
       </c>
     </row>
     <row r="138" ht="24" customHeight="1">
@@ -9101,10 +8988,10 @@
         <v>60</v>
       </c>
       <c r="C139" s="70">
-        <v>40400</v>
+        <v>139400</v>
       </c>
       <c r="D139" s="71">
-        <v>40400</v>
+        <v>139400</v>
       </c>
       <c r="E139" s="71">
         <v>0</v>
@@ -9140,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="72">
-        <v>80800</v>
+        <v>278800</v>
       </c>
     </row>
     <row r="140" ht="30" customHeight="1">
@@ -9149,7 +9036,7 @@
       </c>
       <c r="C140" s="132"/>
       <c r="D140" s="133" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E140" s="133"/>
       <c r="F140" s="133"/>
@@ -9163,28 +9050,28 @@
       <c r="N140" s="133"/>
       <c r="O140" s="134"/>
       <c r="P140" s="131">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="60"/>
       <c r="B142" s="53" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C142" s="138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D142" s="139"/>
       <c r="E142" s="139"/>
       <c r="F142" s="140"/>
       <c r="G142" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H142" s="139"/>
       <c r="I142" s="139"/>
       <c r="J142" s="140"/>
       <c r="K142" s="138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L142" s="139"/>
       <c r="M142" s="139"/>
@@ -9244,10 +9131,10 @@
         <v>58</v>
       </c>
       <c r="C144" s="63">
-        <v>0.080000000000000016</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="D144" s="64">
-        <v>0.080000000000000016</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="E144" s="64">
         <v>0</v>
@@ -9340,10 +9227,10 @@
         <v>59</v>
       </c>
       <c r="C146" s="66">
-        <v>1600.0000000000002</v>
+        <v>11152.000000000002</v>
       </c>
       <c r="D146" s="36">
-        <v>1600.0000000000002</v>
+        <v>11152.000000000002</v>
       </c>
       <c r="E146" s="36">
         <v>0</v>
@@ -9379,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="58">
-        <v>3200</v>
+        <v>22304.000000000004</v>
       </c>
     </row>
     <row r="147" ht="24" customHeight="1">
@@ -9435,10 +9322,10 @@
         <v>60</v>
       </c>
       <c r="C148" s="70">
-        <v>40000</v>
+        <v>278800</v>
       </c>
       <c r="D148" s="71">
-        <v>40000</v>
+        <v>278800</v>
       </c>
       <c r="E148" s="71">
         <v>0</v>
@@ -9474,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="72">
-        <v>80000</v>
+        <v>557600</v>
       </c>
     </row>
     <row r="149" ht="30" customHeight="1">
@@ -9483,7 +9370,7 @@
       </c>
       <c r="C149" s="132"/>
       <c r="D149" s="133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E149" s="133"/>
       <c r="F149" s="133"/>
@@ -9497,28 +9384,28 @@
       <c r="N149" s="133"/>
       <c r="O149" s="134"/>
       <c r="P149" s="131">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="60"/>
       <c r="B151" s="53" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C151" s="138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D151" s="139"/>
       <c r="E151" s="139"/>
       <c r="F151" s="140"/>
       <c r="G151" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H151" s="139"/>
       <c r="I151" s="139"/>
       <c r="J151" s="140"/>
       <c r="K151" s="138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L151" s="139"/>
       <c r="M151" s="139"/>
@@ -9578,10 +9465,10 @@
         <v>58</v>
       </c>
       <c r="C153" s="63">
-        <v>0.19880000000000003</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="D153" s="64">
-        <v>0.19880000000000003</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="E153" s="64">
         <v>0</v>
@@ -9674,10 +9561,10 @@
         <v>59</v>
       </c>
       <c r="C155" s="66">
-        <v>3976.0000000000005</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="D155" s="36">
-        <v>3976.0000000000005</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="E155" s="36">
         <v>0</v>
@@ -9713,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="58">
-        <v>7952</v>
+        <v>1616.0000000000002</v>
       </c>
     </row>
     <row r="156" ht="24" customHeight="1">
@@ -9769,10 +9656,10 @@
         <v>60</v>
       </c>
       <c r="C157" s="70">
-        <v>99400</v>
+        <v>20200</v>
       </c>
       <c r="D157" s="71">
-        <v>99400</v>
+        <v>20200</v>
       </c>
       <c r="E157" s="71">
         <v>0</v>
@@ -9808,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="72">
-        <v>198800</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="158" ht="30" customHeight="1">
@@ -9817,7 +9704,7 @@
       </c>
       <c r="C158" s="132"/>
       <c r="D158" s="133" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E158" s="133"/>
       <c r="F158" s="133"/>
@@ -9831,28 +9718,28 @@
       <c r="N158" s="133"/>
       <c r="O158" s="134"/>
       <c r="P158" s="131">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="60"/>
       <c r="B160" s="53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C160" s="138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D160" s="139"/>
       <c r="E160" s="139"/>
       <c r="F160" s="140"/>
       <c r="G160" s="139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H160" s="139"/>
       <c r="I160" s="139"/>
       <c r="J160" s="140"/>
       <c r="K160" s="138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L160" s="139"/>
       <c r="M160" s="139"/>
@@ -9912,10 +9799,10 @@
         <v>58</v>
       </c>
       <c r="C162" s="63">
-        <v>0.1394</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="D162" s="64">
-        <v>0.1394</v>
+        <v>0.020200000000000003</v>
       </c>
       <c r="E162" s="64">
         <v>0</v>
@@ -10008,10 +9895,10 @@
         <v>59</v>
       </c>
       <c r="C164" s="66">
-        <v>5576</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="D164" s="36">
-        <v>5576</v>
+        <v>808.00000000000011</v>
       </c>
       <c r="E164" s="36">
         <v>0</v>
@@ -10047,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="58">
-        <v>11152</v>
+        <v>1616.0000000000002</v>
       </c>
     </row>
     <row r="165" ht="24" customHeight="1">
@@ -10103,10 +9990,10 @@
         <v>60</v>
       </c>
       <c r="C166" s="70">
-        <v>139400</v>
+        <v>20200</v>
       </c>
       <c r="D166" s="71">
-        <v>139400</v>
+        <v>20200</v>
       </c>
       <c r="E166" s="71">
         <v>0</v>
@@ -10142,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="72">
-        <v>278800</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="167" ht="30" customHeight="1">
@@ -10151,7 +10038,7 @@
       </c>
       <c r="C167" s="132"/>
       <c r="D167" s="133" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E167" s="133"/>
       <c r="F167" s="133"/>
@@ -10165,11 +10052,561 @@
       <c r="N167" s="133"/>
       <c r="O167" s="134"/>
       <c r="P167" s="131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="60"/>
+      <c r="B169" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="D169" s="139"/>
+      <c r="E169" s="139"/>
+      <c r="F169" s="140"/>
+      <c r="G169" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="H169" s="139"/>
+      <c r="I169" s="139"/>
+      <c r="J169" s="140"/>
+      <c r="K169" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="L169" s="139"/>
+      <c r="M169" s="139"/>
+      <c r="N169" s="139"/>
+      <c r="O169" s="140"/>
+      <c r="P169" s="30"/>
+    </row>
+    <row r="170" ht="24" customHeight="1">
+      <c r="A170" s="60"/>
+      <c r="B170" s="75"/>
+      <c r="C170" s="56">
+        <v>43920</v>
+      </c>
+      <c r="D170" s="56">
+        <v>43927</v>
+      </c>
+      <c r="E170" s="56">
+        <v>43934</v>
+      </c>
+      <c r="F170" s="57">
+        <v>43941</v>
+      </c>
+      <c r="G170" s="56">
+        <v>43948</v>
+      </c>
+      <c r="H170" s="56">
+        <v>43955</v>
+      </c>
+      <c r="I170" s="56">
+        <v>43962</v>
+      </c>
+      <c r="J170" s="57">
+        <v>43969</v>
+      </c>
+      <c r="K170" s="56">
+        <v>43976</v>
+      </c>
+      <c r="L170" s="56">
+        <v>43983</v>
+      </c>
+      <c r="M170" s="56">
+        <v>43990</v>
+      </c>
+      <c r="N170" s="56">
+        <v>43997</v>
+      </c>
+      <c r="O170" s="56">
+        <v>44004</v>
+      </c>
+      <c r="P170" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" ht="24" customHeight="1">
+      <c r="A171" s="25"/>
+      <c r="B171" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C171" s="63">
+        <v>0.020200000000000003</v>
+      </c>
+      <c r="D171" s="64">
+        <v>0.020200000000000003</v>
+      </c>
+      <c r="E171" s="64">
+        <v>0</v>
+      </c>
+      <c r="F171" s="65">
+        <v>0</v>
+      </c>
+      <c r="G171" s="63">
+        <v>0</v>
+      </c>
+      <c r="H171" s="64">
+        <v>0</v>
+      </c>
+      <c r="I171" s="64">
+        <v>0</v>
+      </c>
+      <c r="J171" s="65">
+        <v>0</v>
+      </c>
+      <c r="K171" s="63">
+        <v>0</v>
+      </c>
+      <c r="L171" s="64">
+        <v>0</v>
+      </c>
+      <c r="M171" s="64">
+        <v>0</v>
+      </c>
+      <c r="N171" s="64">
+        <v>0</v>
+      </c>
+      <c r="O171" s="65">
+        <v>0</v>
+      </c>
+      <c r="P171" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" ht="24" customHeight="1">
+      <c r="A172" s="25"/>
+      <c r="B172" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="67">
+        <v>0</v>
+      </c>
+      <c r="D172" s="37">
+        <v>0</v>
+      </c>
+      <c r="E172" s="37">
+        <v>0</v>
+      </c>
+      <c r="F172" s="59">
+        <v>0</v>
+      </c>
+      <c r="G172" s="67">
+        <v>0</v>
+      </c>
+      <c r="H172" s="37">
+        <v>0</v>
+      </c>
+      <c r="I172" s="37">
+        <v>0</v>
+      </c>
+      <c r="J172" s="59">
+        <v>0</v>
+      </c>
+      <c r="K172" s="67">
+        <v>0</v>
+      </c>
+      <c r="L172" s="37">
+        <v>0</v>
+      </c>
+      <c r="M172" s="37">
+        <v>0</v>
+      </c>
+      <c r="N172" s="37">
+        <v>0</v>
+      </c>
+      <c r="O172" s="59">
+        <v>0</v>
+      </c>
+      <c r="P172" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" ht="24" customHeight="1">
+      <c r="A173" s="25"/>
+      <c r="B173" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" s="66">
+        <v>1616.0000000000002</v>
+      </c>
+      <c r="D173" s="36">
+        <v>1616.0000000000002</v>
+      </c>
+      <c r="E173" s="36">
+        <v>0</v>
+      </c>
+      <c r="F173" s="58">
+        <v>0</v>
+      </c>
+      <c r="G173" s="66">
+        <v>0</v>
+      </c>
+      <c r="H173" s="36">
+        <v>0</v>
+      </c>
+      <c r="I173" s="36">
+        <v>0</v>
+      </c>
+      <c r="J173" s="58">
+        <v>0</v>
+      </c>
+      <c r="K173" s="66">
+        <v>0</v>
+      </c>
+      <c r="L173" s="36">
+        <v>0</v>
+      </c>
+      <c r="M173" s="36">
+        <v>0</v>
+      </c>
+      <c r="N173" s="36">
+        <v>0</v>
+      </c>
+      <c r="O173" s="58">
+        <v>0</v>
+      </c>
+      <c r="P173" s="58">
+        <v>3232.0000000000005</v>
+      </c>
+    </row>
+    <row r="174" ht="24" customHeight="1">
+      <c r="A174" s="25"/>
+      <c r="B174" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174" s="73">
+        <v>25</v>
+      </c>
+      <c r="D174" s="38">
+        <v>25</v>
+      </c>
+      <c r="E174" s="38">
+        <v>0</v>
+      </c>
+      <c r="F174" s="74">
+        <v>0</v>
+      </c>
+      <c r="G174" s="73">
+        <v>0</v>
+      </c>
+      <c r="H174" s="38">
+        <v>0</v>
+      </c>
+      <c r="I174" s="38">
+        <v>0</v>
+      </c>
+      <c r="J174" s="74">
+        <v>0</v>
+      </c>
+      <c r="K174" s="73">
+        <v>0</v>
+      </c>
+      <c r="L174" s="38">
+        <v>0</v>
+      </c>
+      <c r="M174" s="38">
+        <v>0</v>
+      </c>
+      <c r="N174" s="38">
+        <v>0</v>
+      </c>
+      <c r="O174" s="74">
+        <v>0</v>
+      </c>
+      <c r="P174" s="74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" ht="24" customHeight="1">
+      <c r="B175" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C175" s="70">
+        <v>40400</v>
+      </c>
+      <c r="D175" s="71">
+        <v>40400</v>
+      </c>
+      <c r="E175" s="71">
+        <v>0</v>
+      </c>
+      <c r="F175" s="72">
+        <v>0</v>
+      </c>
+      <c r="G175" s="70">
+        <v>0</v>
+      </c>
+      <c r="H175" s="71">
+        <v>0</v>
+      </c>
+      <c r="I175" s="71">
+        <v>0</v>
+      </c>
+      <c r="J175" s="72">
+        <v>0</v>
+      </c>
+      <c r="K175" s="70">
+        <v>0</v>
+      </c>
+      <c r="L175" s="71">
+        <v>0</v>
+      </c>
+      <c r="M175" s="71">
+        <v>0</v>
+      </c>
+      <c r="N175" s="71">
+        <v>0</v>
+      </c>
+      <c r="O175" s="72">
+        <v>0</v>
+      </c>
+      <c r="P175" s="72">
+        <v>80800</v>
+      </c>
+    </row>
+    <row r="176" ht="30" customHeight="1">
+      <c r="B176" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" s="132"/>
+      <c r="D176" s="133" t="s">
+        <v>79</v>
+      </c>
+      <c r="E176" s="133"/>
+      <c r="F176" s="133"/>
+      <c r="G176" s="132"/>
+      <c r="H176" s="133"/>
+      <c r="I176" s="133"/>
+      <c r="J176" s="134"/>
+      <c r="K176" s="132"/>
+      <c r="L176" s="133"/>
+      <c r="M176" s="133"/>
+      <c r="N176" s="133"/>
+      <c r="O176" s="134"/>
+      <c r="P176" s="131">
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="24" customHeight="1">
-      <c r="P169" s="60"/>
+    <row r="178">
+      <c r="A178" s="60"/>
+      <c r="B178" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C178" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="D178" s="139"/>
+      <c r="E178" s="139"/>
+      <c r="F178" s="140"/>
+      <c r="G178" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="H178" s="139"/>
+      <c r="I178" s="139"/>
+      <c r="J178" s="140"/>
+      <c r="K178" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="L178" s="139"/>
+      <c r="M178" s="139"/>
+      <c r="N178" s="139"/>
+      <c r="O178" s="140"/>
+      <c r="P178" s="30"/>
+    </row>
+    <row r="179" ht="24" customHeight="1">
+      <c r="A179" s="60"/>
+      <c r="B179" s="75"/>
+      <c r="C179" s="56">
+        <v>43920</v>
+      </c>
+      <c r="D179" s="56">
+        <v>43927</v>
+      </c>
+      <c r="E179" s="56">
+        <v>43934</v>
+      </c>
+      <c r="F179" s="57">
+        <v>43941</v>
+      </c>
+      <c r="G179" s="56">
+        <v>43948</v>
+      </c>
+      <c r="H179" s="56">
+        <v>43955</v>
+      </c>
+      <c r="I179" s="56">
+        <v>43962</v>
+      </c>
+      <c r="J179" s="57">
+        <v>43969</v>
+      </c>
+      <c r="K179" s="56">
+        <v>43976</v>
+      </c>
+      <c r="L179" s="56">
+        <v>43983</v>
+      </c>
+      <c r="M179" s="56">
+        <v>43990</v>
+      </c>
+      <c r="N179" s="56">
+        <v>43997</v>
+      </c>
+      <c r="O179" s="56">
+        <v>44004</v>
+      </c>
+      <c r="P179" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" ht="24" customHeight="1">
+      <c r="A180" s="25"/>
+      <c r="B180" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C180" s="63"/>
+      <c r="D180" s="64"/>
+      <c r="E180" s="64"/>
+      <c r="F180" s="65"/>
+      <c r="G180" s="63"/>
+      <c r="H180" s="64"/>
+      <c r="I180" s="64"/>
+      <c r="J180" s="65"/>
+      <c r="K180" s="63"/>
+      <c r="L180" s="64"/>
+      <c r="M180" s="64"/>
+      <c r="N180" s="64"/>
+      <c r="O180" s="65"/>
+      <c r="P180" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" ht="24" customHeight="1">
+      <c r="A181" s="25"/>
+      <c r="B181" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="67">
+        <v>1</v>
+      </c>
+      <c r="D181" s="37">
+        <v>1</v>
+      </c>
+      <c r="E181" s="37"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="67"/>
+      <c r="H181" s="37"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="59"/>
+      <c r="K181" s="67"/>
+      <c r="L181" s="37"/>
+      <c r="M181" s="37"/>
+      <c r="N181" s="37"/>
+      <c r="O181" s="59"/>
+      <c r="P181" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" ht="24" customHeight="1">
+      <c r="A182" s="25"/>
+      <c r="B182" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C182" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D182" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E182" s="36"/>
+      <c r="F182" s="58"/>
+      <c r="G182" s="66"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="58"/>
+      <c r="K182" s="66"/>
+      <c r="L182" s="36"/>
+      <c r="M182" s="36"/>
+      <c r="N182" s="36"/>
+      <c r="O182" s="58"/>
+      <c r="P182" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" ht="24" customHeight="1">
+      <c r="A183" s="25"/>
+      <c r="B183" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D183" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E183" s="38"/>
+      <c r="F183" s="74"/>
+      <c r="G183" s="73"/>
+      <c r="H183" s="38"/>
+      <c r="I183" s="38"/>
+      <c r="J183" s="74"/>
+      <c r="K183" s="73"/>
+      <c r="L183" s="38"/>
+      <c r="M183" s="38"/>
+      <c r="N183" s="38"/>
+      <c r="O183" s="74"/>
+      <c r="P183" s="74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" ht="24" customHeight="1">
+      <c r="B184" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D184" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E184" s="71"/>
+      <c r="F184" s="72"/>
+      <c r="G184" s="70"/>
+      <c r="H184" s="71"/>
+      <c r="I184" s="71"/>
+      <c r="J184" s="72"/>
+      <c r="K184" s="70"/>
+      <c r="L184" s="71"/>
+      <c r="M184" s="71"/>
+      <c r="N184" s="71"/>
+      <c r="O184" s="72"/>
+      <c r="P184" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" ht="30" customHeight="1">
+      <c r="B185" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="132"/>
+      <c r="D185" s="133"/>
+      <c r="E185" s="133"/>
+      <c r="F185" s="133"/>
+      <c r="G185" s="132"/>
+      <c r="H185" s="133"/>
+      <c r="I185" s="133"/>
+      <c r="J185" s="134"/>
+      <c r="K185" s="132"/>
+      <c r="L185" s="133"/>
+      <c r="M185" s="133"/>
+      <c r="N185" s="133"/>
+      <c r="O185" s="134"/>
+      <c r="P185" s="131"/>
+    </row>
+    <row r="187" ht="24" customHeight="1">
+      <c r="P187" s="60"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -10228,6 +10665,12 @@
     <mergeCell ref="C160:F160"/>
     <mergeCell ref="G160:J160"/>
     <mergeCell ref="K160:O160"/>
+    <mergeCell ref="C169:F169"/>
+    <mergeCell ref="G169:J169"/>
+    <mergeCell ref="K169:O169"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="G178:J178"/>
+    <mergeCell ref="K178:O178"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="0" priority="3">
@@ -10335,7 +10778,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -10368,7 +10811,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -10629,7 +11072,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -12885,97 +13328,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="145" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D4" s="145"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="145" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="145"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="145" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" s="145"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="145" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D7" s="145"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="145" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" s="145"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="145" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" s="145"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="145" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10" s="145"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="145" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D11" s="145"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="145" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="145"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="145" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D13" s="145"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="145" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D14" s="145"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="145" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D15" s="145"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="145" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D16" s="145"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="145" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" s="145"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="145" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" s="145"/>
     </row>
@@ -13036,10 +13479,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -13074,24 +13517,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="135" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5" s="135"/>
       <c r="E5" s="135" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F5" s="135"/>
       <c r="G5" s="135"/>
       <c r="H5" s="135" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I5" s="135"/>
       <c r="J5" s="135" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K5" s="135"/>
       <c r="L5" s="135" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M5" s="135"/>
       <c r="N5" s="76" t="s">
@@ -13103,7 +13546,7 @@
       <c r="R5" s="135"/>
       <c r="S5" s="135"/>
       <c r="T5" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -13123,7 +13566,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -13138,7 +13581,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -13149,14 +13592,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -13209,14 +13652,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -13225,19 +13668,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="121">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H9" s="122">
         <v>0</v>
       </c>
       <c r="I9" s="123">
-        <v>4.355000792973061</v>
+        <v>8.7100015859461219</v>
       </c>
       <c r="J9" s="119">
         <v>0</v>
       </c>
       <c r="K9" s="119">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="L9" s="124">
         <v>12.5</v>
@@ -13252,13 +13695,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="123">
-        <v>17.933520439729918</v>
+        <v>35.867040879459836</v>
       </c>
       <c r="Q9" s="119">
         <v>0</v>
       </c>
       <c r="R9" s="119">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="S9" s="124">
         <v>25</v>
@@ -13269,14 +13712,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -13329,14 +13772,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -13345,19 +13788,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="121">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H11" s="122">
         <v>0</v>
       </c>
       <c r="I11" s="123">
-        <v>8.7100015859461219</v>
+        <v>4.355000792973061</v>
       </c>
       <c r="J11" s="119">
         <v>0</v>
       </c>
       <c r="K11" s="119">
-        <v>9600</v>
+        <v>4800</v>
       </c>
       <c r="L11" s="124">
         <v>12.5</v>
@@ -13372,13 +13815,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="123">
-        <v>35.867040879459836</v>
+        <v>17.933520439729918</v>
       </c>
       <c r="Q11" s="119">
         <v>0</v>
       </c>
       <c r="R11" s="119">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="S11" s="124">
         <v>25</v>
@@ -13389,14 +13832,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -13449,14 +13892,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -13509,14 +13952,14 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -13571,7 +14014,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" s="51">
         <v>0</v>
@@ -13624,7 +14067,7 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="C17" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="7"/>
@@ -13639,7 +14082,7 @@
       <c r="L17" s="139"/>
       <c r="M17" s="140"/>
       <c r="N17" s="138" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O17" s="139"/>
       <c r="P17" s="139"/>
@@ -13650,14 +14093,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>23</v>
@@ -13710,14 +14153,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E19" s="119">
         <v>0</v>
@@ -13726,19 +14169,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="121">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="H19" s="122">
         <v>0</v>
       </c>
       <c r="I19" s="123">
-        <v>2.9033338619820417</v>
+        <v>5.8066677239640834</v>
       </c>
       <c r="J19" s="119">
         <v>0</v>
       </c>
       <c r="K19" s="119">
-        <v>3200.0000000000005</v>
+        <v>6400.0000000000009</v>
       </c>
       <c r="L19" s="124">
         <v>12.5</v>
@@ -13753,13 +14196,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="123">
-        <v>11.955680293153282</v>
+        <v>23.911360586306564</v>
       </c>
       <c r="Q19" s="119">
         <v>0</v>
       </c>
       <c r="R19" s="119">
-        <v>1600.0000000000002</v>
+        <v>3200.0000000000005</v>
       </c>
       <c r="S19" s="124">
         <v>25</v>
@@ -13770,14 +14213,14 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E20" s="119">
         <v>0</v>
@@ -13830,14 +14273,14 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E21" s="119">
         <v>0</v>
@@ -13846,19 +14289,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="121">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H21" s="122">
         <v>0</v>
       </c>
       <c r="I21" s="123">
-        <v>5.8066677239640834</v>
+        <v>2.9033338619820417</v>
       </c>
       <c r="J21" s="119">
         <v>0</v>
       </c>
       <c r="K21" s="119">
-        <v>6400.0000000000009</v>
+        <v>3200.0000000000005</v>
       </c>
       <c r="L21" s="124">
         <v>12.5</v>
@@ -13873,13 +14316,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="123">
-        <v>23.911360586306564</v>
+        <v>11.955680293153282</v>
       </c>
       <c r="Q21" s="119">
         <v>0</v>
       </c>
       <c r="R21" s="119">
-        <v>3200.0000000000005</v>
+        <v>1600.0000000000002</v>
       </c>
       <c r="S21" s="124">
         <v>25</v>
@@ -13890,14 +14333,14 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E22" s="119">
         <v>0</v>
@@ -13950,14 +14393,14 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -14010,14 +14453,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -14072,7 +14515,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E25" s="51">
         <v>0</v>
@@ -14087,13 +14530,13 @@
         <v>38</v>
       </c>
       <c r="I25" s="80">
-        <v>29.033338619820416</v>
+        <v>29.033338619820412</v>
       </c>
       <c r="J25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="51">
-        <v>32000.000000000007</v>
+        <v>32000.000000000004</v>
       </c>
       <c r="L25" s="47">
         <v>12.5</v>
@@ -14108,13 +14551,13 @@
         <v>38</v>
       </c>
       <c r="P25" s="80">
-        <v>119.55680293153283</v>
+        <v>119.55680293153282</v>
       </c>
       <c r="Q25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="R25" s="51">
-        <v>16000.000000000004</v>
+        <v>16000.000000000002</v>
       </c>
       <c r="S25" s="47">
         <v>25</v>
@@ -14140,7 +14583,7 @@
       <c r="L27" s="139"/>
       <c r="M27" s="140"/>
       <c r="N27" s="138" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O27" s="139"/>
       <c r="P27" s="139"/>
@@ -14151,14 +14594,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -14211,14 +14654,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -14227,19 +14670,19 @@
         <v>38</v>
       </c>
       <c r="G29" s="121">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H29" s="122">
         <v>0</v>
       </c>
       <c r="I29" s="123">
-        <v>7.2583346549551031</v>
+        <v>14.516669309910206</v>
       </c>
       <c r="J29" s="119">
         <v>0</v>
       </c>
       <c r="K29" s="119">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L29" s="124">
         <v>12.5</v>
@@ -14254,13 +14697,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="123">
-        <v>29.8892007328832</v>
+        <v>59.7784014657664</v>
       </c>
       <c r="Q29" s="119">
         <v>0</v>
       </c>
       <c r="R29" s="119">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="S29" s="124">
         <v>25</v>
@@ -14271,14 +14714,14 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -14331,14 +14774,14 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -14347,19 +14790,19 @@
         <v>38</v>
       </c>
       <c r="G31" s="121">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H31" s="122">
         <v>0</v>
       </c>
       <c r="I31" s="123">
-        <v>14.516669309910206</v>
+        <v>7.2583346549551031</v>
       </c>
       <c r="J31" s="119">
         <v>0</v>
       </c>
       <c r="K31" s="119">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L31" s="124">
         <v>12.5</v>
@@ -14374,13 +14817,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="123">
-        <v>59.7784014657664</v>
+        <v>29.8892007328832</v>
       </c>
       <c r="Q31" s="119">
         <v>0</v>
       </c>
       <c r="R31" s="119">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="S31" s="124">
         <v>25</v>
@@ -14391,14 +14834,14 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -14451,14 +14894,14 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E33" s="119">
         <v>0</v>
@@ -14511,14 +14954,14 @@
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E34" s="119">
         <v>0</v>
@@ -14573,7 +15016,7 @@
       <c r="B35" s="25"/>
       <c r="C35" s="39"/>
       <c r="D35" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E35" s="51">
         <v>0</v>
@@ -14631,7 +15074,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="117"/>
       <c r="F37" s="146" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G37" s="146"/>
       <c r="H37" s="146"/>
@@ -14673,7 +15116,7 @@
       </c>
       <c r="D39" s="55"/>
       <c r="F39" s="146" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G39" s="146"/>
       <c r="H39" s="146"/>
@@ -14756,7 +15199,7 @@
       </c>
       <c r="D43" s="55"/>
       <c r="F43" s="146" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G43" s="146"/>
       <c r="H43" s="146"/>
@@ -14798,7 +15241,7 @@
       </c>
       <c r="D45" s="55"/>
       <c r="F45" s="137" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G45" s="137"/>
       <c r="H45" s="137"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN Q1'20-Q2'20 Plan Rev - 12-16.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN Q1'20-Q2'20 Plan Rev - 12-16.xlsx
@@ -387,7 +387,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/14/20</t>
+    <t>Created 02/18/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -423,10 +423,10 @@
     <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
   </si>
   <si>
-    <t>EF - 03:00pm - 06:00pm, EM - 06:00am - 09:00am, MDN - 11:00am - 01:00pm</t>
+    <t>EF - M-TU,TH-SU 03:00pm - 06:00pm, EF - M-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, EM - M-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm</t>
   </si>
   <si>
-    <t>3/15-3/17/20, 3/19-3/21/20, 3/24/20, 3/26-3/29/20, 4/7-4/11/20</t>
+    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</t>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/14/20</v>
+        <v>Created 02/18/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D53" s="137" t="str">
         <f>'PROPOSAL'!F39</f>
-        <v>EF - 03:00pm - 06:00pm, EM - 06:00am - 09:00am, MDN - 11:00am - 01:00pm</v>
+        <v>EF - M-TU,TH-SU 03:00pm - 06:00pm, EF - M-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, EM - M-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm</v>
       </c>
       <c r="E53" s="137"/>
       <c r="F53" s="137"/>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="D57" s="137" t="str">
         <f>'PROPOSAL'!F43</f>
-        <v>3/15-3/17/20, 3/19-3/21/20, 3/24/20, 3/26-3/29/20, 4/7-4/11/20</v>
+        <v>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</v>
       </c>
       <c r="E57" s="137"/>
       <c r="F57" s="137"/>
@@ -4073,7 +4073,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/14/20</v>
+        <v>Created 02/18/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D5" s="135" t="str">
         <f>'PROPOSAL'!F39</f>
-        <v>EF - 03:00pm - 06:00pm, EM - 06:00am - 09:00am, MDN - 11:00am - 01:00pm</v>
+        <v>EF - M-TU,TH-SU 03:00pm - 06:00pm, EF - M-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, EM - M-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm</v>
       </c>
       <c r="E5" s="135"/>
       <c r="F5" s="135"/>
